--- a/Nao_Encontrados.xlsx
+++ b/Nao_Encontrados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60986146-F709-4DF2-800C-FFC69155374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A935326C-86B4-481B-A36E-55BB87961E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+  <si>
+    <t>COLABORADOR</t>
+  </si>
+  <si>
+    <t>ENDERECO</t>
+  </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>PROCESSADO</t>
+  </si>
+  <si>
+    <t>WASHINGTON DA SILVA GONÇALVES - RUA NILO COELHO JACOME, 394 - BELA VISTA  - CAETÉ</t>
+  </si>
+  <si>
+    <t>RUA NILO COELHO JACOME, 394 - BELA VISTA - CAETÉ</t>
+  </si>
+  <si>
+    <t>A PROCESSAR</t>
+  </si>
+  <si>
+    <t>CLÁUDIO MANOEL DA SILVA BORBA</t>
+  </si>
+  <si>
+    <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA Nº 130 - BAIRRO ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>RUA ROSA DE PEDRA  130 - BAIRRO ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, Nº413 - BAIRRO NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>BECO SÃO LUIZ, 413 - BAIRRO NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, Nº839 - BAIRRO JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANTÔNIO, 839 - BAIRRO JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODILIO ROCHA DE SOUZA - RUA BOLÍVIA, Nº 67, BAIRRO PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA BOLÍVIA,  67, BAIRRO PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t>WILLIAN MACHADO NETO - RUA ANTÔNIO INÁCIO Nº 104 - BAIRRO SÃO SEBASTIÃO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO INÁCIO  104 - BAIRRO SÃO SEBASTIÃO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>MANOELITO FAGUNDES DA SILVA - RUA RICARDINO N110, BAIRRO SANTO ANTONIO DE ROÇAS GRANDE - Sabará</t>
+  </si>
+  <si>
+    <t>RUA RICARDINO N110, BAIRRO SANTO ANTONIO DE ROÇAS GRANDE - Sabará</t>
+  </si>
+  <si>
+    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES, Nº 693 - BAIRRO ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693 - BAIRRO ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO DA SILVA - AV. PRINCIPAL, Nº 1100 - CONDOMÍNIO DOS MILITARES, BAIRRO SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>AV. PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, BAIRRO SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,17 +438,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="166" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Nao_Encontrados.xlsx
+++ b/Nao_Encontrados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A935326C-86B4-481B-A36E-55BB87961E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE877D-8828-4108-8A88-26BCB0448A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16935" yWindow="1035" windowWidth="11220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -36,91 +36,16 @@
     <t>TURNO</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>PROCESSADO</t>
-  </si>
-  <si>
     <t>WASHINGTON DA SILVA GONÇALVES - RUA NILO COELHO JACOME, 394 - BELA VISTA  - CAETÉ</t>
   </si>
   <si>
     <t>RUA NILO COELHO JACOME, 394 - BELA VISTA - CAETÉ</t>
   </si>
   <si>
-    <t>A PROCESSAR</t>
-  </si>
-  <si>
     <t>CLÁUDIO MANOEL DA SILVA BORBA</t>
   </si>
   <si>
     <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA Nº 130 - BAIRRO ETELVINA CARNEIRO - BH</t>
-  </si>
-  <si>
-    <t>RUA ROSA DE PEDRA  130 - BAIRRO ETELVINA CARNEIRO - BH</t>
-  </si>
-  <si>
-    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, Nº413 - BAIRRO NOVA CONTAGEM - CONTAGEM</t>
-  </si>
-  <si>
-    <t>BECO SÃO LUIZ, 413 - BAIRRO NOVA CONTAGEM - CONTAGEM</t>
-  </si>
-  <si>
-    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, Nº839 - BAIRRO JARDIM DAS ROSAS  - IBIRITÉ</t>
-  </si>
-  <si>
-    <t>RUA SEBASTIÃO ANTÔNIO, 839 - BAIRRO JARDIM DAS ROSAS  - IBIRITÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODILIO ROCHA DE SOUZA - RUA BOLÍVIA, Nº 67, BAIRRO PRIMAVERA  - IBIRITÉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUA BOLÍVIA,  67, BAIRRO PRIMAVERA  - IBIRITÉ </t>
-  </si>
-  <si>
-    <t>WILLIAN MACHADO NETO - RUA ANTÔNIO INÁCIO Nº 104 - BAIRRO SÃO SEBASTIÃO - MATOZINHOS</t>
-  </si>
-  <si>
-    <t>RUA ANTÔNIO INÁCIO  104 - BAIRRO SÃO SEBASTIÃO - MATOZINHOS</t>
-  </si>
-  <si>
-    <t>MANOELITO FAGUNDES DA SILVA - RUA RICARDINO N110, BAIRRO SANTO ANTONIO DE ROÇAS GRANDE - Sabará</t>
-  </si>
-  <si>
-    <t>RUA RICARDINO N110, BAIRRO SANTO ANTONIO DE ROÇAS GRANDE - Sabará</t>
-  </si>
-  <si>
-    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
-  </si>
-  <si>
-    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
-  </si>
-  <si>
-    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES, Nº 693 - BAIRRO ICAL - SÃO JOSÉ DA LAPA</t>
-  </si>
-  <si>
-    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693 - BAIRRO ICAL - SÃO JOSÉ DA LAPA</t>
-  </si>
-  <si>
-    <t>CARLOS ROBERTO DA SILVA - AV. PRINCIPAL, Nº 1100 - CONDOMÍNIO DOS MILITARES, BAIRRO SERRA DOURADA  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>AV. PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, BAIRRO SERRA DOURADA  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
   </si>
 </sst>
 </file>
@@ -438,16 +363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="166" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,193 +382,27 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Nao_Encontrados.xlsx
+++ b/Nao_Encontrados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE877D-8828-4108-8A88-26BCB0448A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648047A4-2D34-430A-90A0-1F679DBCC82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16935" yWindow="1035" windowWidth="11220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -46,6 +46,66 @@
   </si>
   <si>
     <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODILIO ROCHA DE SOUZA - RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO DA SILVA - AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
   </si>
 </sst>
 </file>
@@ -363,16 +423,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="166" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -394,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -403,6 +466,116 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Nao_Encontrados.xlsx
+++ b/Nao_Encontrados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648047A4-2D34-430A-90A0-1F679DBCC82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C32C74-EA6B-41C8-A820-CBAFB2209FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,89 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>COLABORADOR</t>
-  </si>
-  <si>
-    <t>ENDERECO</t>
-  </si>
-  <si>
-    <t>TURNO</t>
-  </si>
-  <si>
-    <t>WASHINGTON DA SILVA GONÇALVES - RUA NILO COELHO JACOME, 394 - BELA VISTA  - CAETÉ</t>
-  </si>
-  <si>
-    <t>RUA NILO COELHO JACOME, 394 - BELA VISTA - CAETÉ</t>
-  </si>
-  <si>
-    <t>CLÁUDIO MANOEL DA SILVA BORBA</t>
-  </si>
-  <si>
-    <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
-  </si>
-  <si>
-    <t>RUA ROSA DE PEDRA  130 - ETELVINA CARNEIRO - BH</t>
-  </si>
-  <si>
-    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
-  </si>
-  <si>
-    <t>BECO SÃO LUIZ, 413 - NOVA CONTAGEM - CONTAGEM</t>
-  </si>
-  <si>
-    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
-  </si>
-  <si>
-    <t>RUA SEBASTIÃO ANTÔNIO, 839 - JARDIM DAS ROSAS  - IBIRITÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODILIO ROCHA DE SOUZA - RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUA BOLÍVIA,  67, PRIMAVERA  - IBIRITÉ </t>
-  </si>
-  <si>
-    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
-  </si>
-  <si>
-    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
-  </si>
-  <si>
-    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
-  </si>
-  <si>
-    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693 - ICAL - SÃO JOSÉ DA LAPA</t>
-  </si>
-  <si>
-    <t>CARLOS ROBERTO DA SILVA - AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>AVENIDA PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, SERRA DOURADA  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
-  </si>
-  <si>
-    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
-  </si>
-  <si>
-    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
-  </si>
-  <si>
-    <t>RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,162 +341,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>